--- a/程式碼紀錄.xlsx
+++ b/程式碼紀錄.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>學號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,10 @@
   </si>
   <si>
     <t>總行數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行事曆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -491,11 +495,11 @@
       </c>
       <c r="G3" s="1">
         <f>F3/I3*100</f>
-        <v>36.746231155778894</v>
+        <v>30.854430379746834</v>
       </c>
       <c r="I3" s="1">
-        <f>F3+F7+F11</f>
-        <v>1592</v>
+        <f>F3+F7+F11+F15</f>
+        <v>1896</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -529,7 +533,7 @@
       </c>
       <c r="G7" s="1">
         <f>F7/I3*100</f>
-        <v>17.525125628140703</v>
+        <v>14.715189873417723</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -562,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="1">
-        <v>495</v>
+        <v>601</v>
       </c>
       <c r="C11" s="1">
         <v>31</v>
@@ -573,11 +577,46 @@
       </c>
       <c r="F11" s="1">
         <f>B11+C11+D11</f>
-        <v>728</v>
+        <v>834</v>
       </c>
       <c r="G11" s="1">
         <f>F11/I3*100</f>
-        <v>45.7286432160804</v>
+        <v>43.9873417721519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>105103308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>198</v>
+      </c>
+      <c r="F15" s="1">
+        <f>B15</f>
+        <v>198</v>
+      </c>
+      <c r="G15" s="1">
+        <f>F15/I3*100</f>
+        <v>10.443037974683545</v>
       </c>
     </row>
   </sheetData>
